--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3007577.29765551</v>
+        <v>3001855.685687624</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095097</v>
       </c>
     </row>
     <row r="9">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>112.9856999467126</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>191.3215523712053</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -819,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>59.0614618738248</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>23.37809923434654</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>175.3139866200686</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>163.0793702451203</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>163.1423514055438</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>43.53636164073672</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>338.2584895448982</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586869</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1308,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>6.971462563748611</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
         <v>18.81721868247745</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,10 +1527,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>74.75769145492315</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,25 +1575,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>159.0438448938657</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>28.87187436015421</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>70.0787639577046</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H17" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>136.9968647819692</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>142.6954587001705</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,10 +2241,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>32.5220764603871</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>6.380068175847255</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>67.337423715133</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>88.23797643592179</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>68.85005436466994</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>71.56229046895207</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2891,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>197.9011269757002</v>
+        <v>197.0289999663477</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>17.25588147840233</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3243,19 +3243,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>221.6913032830528</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534538</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>47.55603294304667</v>
+        <v>13.89072837997214</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>109.187761788176</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>148.173628744361</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,13 +3714,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>208.5297823800585</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>125.2319874488156</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3918,7 +3918,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>197.656086036194</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>60.95204631385855</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>19.18737145141991</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1001.280783616703</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C2" t="n">
-        <v>632.3182666762915</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2133.181277191804</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960885</v>
+        <v>2133.181277191804</v>
       </c>
       <c r="W2" t="n">
-        <v>1778.019955656637</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="X2" t="n">
-        <v>1778.019955656637</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y2" t="n">
-        <v>1387.880623680825</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,22 +4418,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>675.0978234092011</v>
+        <v>249.9299350185089</v>
       </c>
       <c r="C4" t="n">
-        <v>506.1616404812942</v>
+        <v>249.9299350185089</v>
       </c>
       <c r="D4" t="n">
-        <v>506.1616404812942</v>
+        <v>249.9299350185089</v>
       </c>
       <c r="E4" t="n">
-        <v>506.1616404812942</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>359.2716929833838</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
         <v>190.2718927217162</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>675.0978234092011</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>675.0978234092011</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>675.0978234092011</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>675.0978234092011</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>675.0978234092011</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>675.0978234092011</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>675.0978234092011</v>
+        <v>470.722514162039</v>
       </c>
       <c r="Y4" t="n">
-        <v>675.0978234092011</v>
+        <v>249.9299350185089</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>818.8658378359718</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.064256048457</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2266.302470686548</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1935.239583342978</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>1582.470928072863</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X5" t="n">
-        <v>1209.005169811784</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>818.8658378359718</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036469</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.1903022614632</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571351</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2697.149091018223</v>
+        <v>563.3387302614404</v>
       </c>
       <c r="C7" t="n">
-        <v>2532.42245440699</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="D7" t="n">
-        <v>2532.42245440699</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>2384.509360824597</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>2237.619413326687</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>2068.619613065019</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>2068.619613065019</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>2068.619613065019</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>2697.149091018223</v>
+        <v>563.3387302614404</v>
       </c>
       <c r="Y7" t="n">
-        <v>2697.149091018223</v>
+        <v>563.3387302614404</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1595.875667274027</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1595.875667274027</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2653.172968148791</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2322.110080805221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.341425535107</v>
+        <v>2355.473849053679</v>
       </c>
       <c r="X8" t="n">
-        <v>1595.875667274027</v>
+        <v>1982.008090792599</v>
       </c>
       <c r="Y8" t="n">
-        <v>1595.875667274027</v>
+        <v>1591.868758816787</v>
       </c>
     </row>
     <row r="9">
@@ -4880,10 +4880,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>309.190302261463</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>721.0871028289104</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>552.1509199010035</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>552.1509199010035</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>404.2378263186104</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>721.0871028289104</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>721.0871028289104</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>721.0871028289104</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>721.0871028289104</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>721.0871028289104</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>721.0871028289104</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>721.0871028289104</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>721.0871028289104</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
@@ -5041,25 +5041,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075805</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188666</v>
@@ -5096,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
         <v>487.9678785494859</v>
@@ -5120,28 +5120,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>822.6328654632896</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="C13" t="n">
-        <v>653.6966825353827</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="D13" t="n">
-        <v>653.6966825353827</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>171.0738540998319</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5202,7 +5202,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L13" t="n">
         <v>661.2306482927024</v>
@@ -5214,37 +5214,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T13" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U13" t="n">
-        <v>1385.724257814702</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1225.073909437059</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W13" t="n">
-        <v>1225.073909437059</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X13" t="n">
-        <v>1225.073909437059</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y13" t="n">
-        <v>1004.281330293529</v>
+        <v>171.0738540998319</v>
       </c>
     </row>
     <row r="14">
@@ -5257,16 +5257,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5278,46 +5278,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M14" t="n">
-        <v>2536.15366264131</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G15" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>270.9417306852379</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U16" t="n">
-        <v>1885.556835844396</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1630.872347638509</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>1341.455177601548</v>
+        <v>901.3723255570251</v>
       </c>
       <c r="X16" t="n">
-        <v>1341.455177601548</v>
+        <v>673.3827746590077</v>
       </c>
       <c r="Y16" t="n">
-        <v>1120.662598458018</v>
+        <v>452.5901955154776</v>
       </c>
     </row>
     <row r="17">
@@ -5497,16 +5497,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
@@ -5515,28 +5515,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>3008.107474639232</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3511.079945518569</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4224.435032965514</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4682.913235474502</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3154.542034367489</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>2980.089005086362</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>2831.154595425111</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>2671.917140419655</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>2525.38258244654</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>2389.019482279158</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>2298.517587917025</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>2279.510296318563</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>2373.18756580918</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>2611.451764789528</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>2978.149925102193</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>3425.426250324509</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>3898.949293878964</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>4309.910573297018</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>4620.410164773121</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>4778.051722419721</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>4777.907369012237</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>4648.469482505717</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>4455.826482183572</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>4227.758635317988</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>3992.606527086245</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>3530.517670152511</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>3322.757371387557</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>508.0400813400981</v>
+        <v>402.87788887324</v>
       </c>
       <c r="C19" t="n">
-        <v>339.1038984121913</v>
+        <v>233.941705945333</v>
       </c>
       <c r="D19" t="n">
-        <v>339.1038984121913</v>
+        <v>233.941705945333</v>
       </c>
       <c r="E19" t="n">
-        <v>339.1038984121913</v>
+        <v>233.941705945333</v>
       </c>
       <c r="F19" t="n">
-        <v>339.1038984121913</v>
+        <v>233.941705945333</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1722.376181892363</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T19" t="n">
-        <v>1500.609566461889</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U19" t="n">
-        <v>1211.506699587532</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V19" t="n">
-        <v>956.8222113816456</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W19" t="n">
-        <v>956.8222113816456</v>
+        <v>1033.308483745027</v>
       </c>
       <c r="X19" t="n">
-        <v>728.8326604836283</v>
+        <v>805.3189328470098</v>
       </c>
       <c r="Y19" t="n">
-        <v>508.0400813400981</v>
+        <v>584.5263537034797</v>
       </c>
     </row>
     <row r="20">
@@ -5749,22 +5749,22 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>1770.231306037952</v>
       </c>
       <c r="N20" t="n">
-        <v>2979.169639353394</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O20" t="n">
         <v>3482.142110232731</v>
@@ -5788,7 +5788,7 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
         <v>3524.421286991189</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>278.5282561439494</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>245.6776738607301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1949.898952795766</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1949.898952795766</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1728.132337365293</v>
       </c>
       <c r="U22" t="n">
-        <v>1453.060509258584</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V22" t="n">
-        <v>1198.376021052697</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W22" t="n">
-        <v>908.9588510157366</v>
+        <v>894.9278122480886</v>
       </c>
       <c r="X22" t="n">
-        <v>680.9693001177193</v>
+        <v>666.9382613500712</v>
       </c>
       <c r="Y22" t="n">
-        <v>460.1767209741892</v>
+        <v>446.1456822065411</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551621</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>913.1101661838552</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1364.144379432264</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>1897.676284104189</v>
+        <v>2461.328657580449</v>
       </c>
       <c r="N23" t="n">
-        <v>2877.428556330835</v>
+        <v>3441.080929807095</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6044,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6101,7 +6101,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>260.9043113423046</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="C25" t="n">
-        <v>260.9043113423046</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="D25" t="n">
-        <v>192.886711630049</v>
+        <v>331.5802510734985</v>
       </c>
       <c r="E25" t="n">
-        <v>192.886711630049</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,19 +6162,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T25" t="n">
         <v>1542.890966501056</v>
@@ -6183,16 +6183,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208126</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838521</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858347</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y25" t="n">
-        <v>260.9043113423046</v>
+        <v>481.6968904858343</v>
       </c>
     </row>
     <row r="26">
@@ -6205,22 +6205,22 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
@@ -6232,46 +6232,46 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>1622.425187676631</v>
       </c>
       <c r="N26" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O26" t="n">
-        <v>3944.053400686433</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6305,19 +6305,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>877.1197344942216</v>
+        <v>806.069814334827</v>
       </c>
       <c r="C28" t="n">
-        <v>708.1835515663147</v>
+        <v>637.1336314069201</v>
       </c>
       <c r="D28" t="n">
-        <v>558.0669121539789</v>
+        <v>487.0169919945844</v>
       </c>
       <c r="E28" t="n">
-        <v>410.1538185715858</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839442</v>
@@ -6414,22 +6414,22 @@
         <v>1866.513008862232</v>
       </c>
       <c r="T28" t="n">
-        <v>1796.967499402969</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="U28" t="n">
-        <v>1796.967499402969</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V28" t="n">
-        <v>1796.967499402969</v>
+        <v>1505.125000100045</v>
       </c>
       <c r="W28" t="n">
-        <v>1507.550329366009</v>
+        <v>1215.707830063084</v>
       </c>
       <c r="X28" t="n">
-        <v>1279.560778467991</v>
+        <v>987.7182791650667</v>
       </c>
       <c r="Y28" t="n">
-        <v>1058.768199324461</v>
+        <v>987.7182791650667</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690174</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749762</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143012</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544768</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551604</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001573</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089257</v>
@@ -6469,46 +6469,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N29" t="n">
-        <v>3051.398683947134</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.363334276589</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R29" t="n">
         <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946814</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331035</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604872</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261301</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991187</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730107</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839441</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3501.350626910589</v>
+        <v>414.613856788637</v>
       </c>
       <c r="C31" t="n">
-        <v>3332.414443982682</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D31" t="n">
-        <v>3182.297804570347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>3182.297804570347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>3182.297804570347</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M31" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P31" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>4778.05172241972</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>4586.365838246546</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>4386.465709988263</v>
+        <v>1475.807932803858</v>
       </c>
       <c r="U31" t="n">
-        <v>4386.465709988263</v>
+        <v>1186.705065929502</v>
       </c>
       <c r="V31" t="n">
-        <v>4131.781221782377</v>
+        <v>932.0205777236149</v>
       </c>
       <c r="W31" t="n">
-        <v>4131.781221782377</v>
+        <v>642.6034076866544</v>
       </c>
       <c r="X31" t="n">
-        <v>3903.791670884359</v>
+        <v>414.613856788637</v>
       </c>
       <c r="Y31" t="n">
-        <v>3682.999091740829</v>
+        <v>414.613856788637</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,28 +6700,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K32" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2439.038619608515</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>2985.817436667297</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>3865.782086996752</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P32" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
         <v>4778.05172241972</v>
@@ -6755,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D33" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F33" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L33" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N33" t="n">
         <v>1715.000032008795</v>
@@ -6800,7 +6800,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R33" t="n">
         <v>2593.958107142068</v>
@@ -6812,7 +6812,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>974.4454116758762</v>
+        <v>260.904311342305</v>
       </c>
       <c r="C34" t="n">
-        <v>805.5092287479694</v>
+        <v>260.904311342305</v>
       </c>
       <c r="D34" t="n">
-        <v>655.3925893356336</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E34" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6864,13 +6864,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O34" t="n">
         <v>1646.12566951853</v>
@@ -6882,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1453.060509258584</v>
+        <v>1253.7880996267</v>
       </c>
       <c r="V34" t="n">
-        <v>1198.376021052697</v>
+        <v>999.1036114208131</v>
       </c>
       <c r="W34" t="n">
-        <v>974.4454116758762</v>
+        <v>709.6864413838525</v>
       </c>
       <c r="X34" t="n">
-        <v>974.4454116758762</v>
+        <v>481.6968904858352</v>
       </c>
       <c r="Y34" t="n">
-        <v>974.4454116758762</v>
+        <v>260.904311342305</v>
       </c>
     </row>
     <row r="35">
@@ -6916,67 +6916,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2055.398642844495</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>2602.177459903277</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7055,7 +7055,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>633.9069394924948</v>
+        <v>264.4972173763013</v>
       </c>
       <c r="C37" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>633.9069394924948</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>485.9938459101016</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7101,13 +7101,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7122,25 +7122,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T37" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U37" t="n">
-        <v>1626.79072777689</v>
+        <v>1439.029470490936</v>
       </c>
       <c r="V37" t="n">
-        <v>1372.106239571003</v>
+        <v>1184.344982285049</v>
       </c>
       <c r="W37" t="n">
-        <v>1082.689069534042</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X37" t="n">
-        <v>854.6995186360249</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y37" t="n">
-        <v>633.9069394924948</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="38">
@@ -7159,10 +7159,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7171,7 +7171,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
         <v>451.8458144277729</v>
@@ -7183,25 +7183,25 @@
         <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2274.668463554307</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.420735780954</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
@@ -7210,7 +7210,7 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7286,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>707.274683721365</v>
+        <v>825.859557377715</v>
       </c>
       <c r="C40" t="n">
-        <v>538.3385007934581</v>
+        <v>656.9233744498081</v>
       </c>
       <c r="D40" t="n">
-        <v>538.3385007934581</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="E40" t="n">
-        <v>538.3385007934581</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F40" t="n">
-        <v>391.4485532955478</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7362,22 +7362,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T40" t="n">
-        <v>1734.57685067423</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U40" t="n">
-        <v>1445.473983799873</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V40" t="n">
-        <v>1445.473983799873</v>
+        <v>1745.707322286463</v>
       </c>
       <c r="W40" t="n">
-        <v>1156.056813762912</v>
+        <v>1456.290152249502</v>
       </c>
       <c r="X40" t="n">
-        <v>928.0672628648952</v>
+        <v>1228.300601351485</v>
       </c>
       <c r="Y40" t="n">
-        <v>707.274683721365</v>
+        <v>1007.508022207955</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1650.184003770974</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2439.038619608516</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>2985.817436667298</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3865.782086996753</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="42">
@@ -7466,37 +7466,37 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161924</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320246</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3626.544724347219</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C43" t="n">
-        <v>3626.544724347219</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D43" t="n">
-        <v>3476.428084934883</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E43" t="n">
-        <v>3328.51499135249</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F43" t="n">
-        <v>3328.51499135249</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>3160.812154727209</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>3014.594967945066</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
-        <v>2917.269290763412</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J43" t="n">
-        <v>2962.391923210348</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>3166.379106159224</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L43" t="n">
-        <v>3482.93890460772</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M43" t="n">
-        <v>3827.095950207269</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N43" t="n">
-        <v>4168.504326913134</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>4467.833925833547</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P43" t="n">
-        <v>4700.441426267206</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>4778.051722419721</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>4586.365838246547</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>4386.713226088776</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>4097.610359214419</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V43" t="n">
-        <v>4097.610359214419</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="W43" t="n">
-        <v>3808.193189177458</v>
+        <v>1377.823429193387</v>
       </c>
       <c r="X43" t="n">
-        <v>3808.193189177458</v>
+        <v>1149.833878295369</v>
       </c>
       <c r="Y43" t="n">
-        <v>3808.193189177458</v>
+        <v>1149.833878295369</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7660,16 +7660,16 @@
         <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3070.887536710053</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>3950.852187039507</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4345.626553396685</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3546.606884838026</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="C46" t="n">
-        <v>3377.670701910119</v>
+        <v>307.2453974100822</v>
       </c>
       <c r="D46" t="n">
-        <v>3377.670701910119</v>
+        <v>157.1287579977465</v>
       </c>
       <c r="E46" t="n">
-        <v>3229.757608327726</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F46" t="n">
-        <v>3082.867660829816</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G46" t="n">
-        <v>3063.486477545553</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H46" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I46" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J46" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L46" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M46" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N46" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P46" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>4688.221265177248</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>4688.221265177248</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>4466.454649746774</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>4466.454649746774</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>4466.454649746774</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>4177.037479709813</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>3949.047928811796</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y46" t="n">
-        <v>3728.255349668266</v>
+        <v>488.8938622403219</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8306,10 +8306,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360591</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8689,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>67.53663776704263</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8932,25 +8932,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>114.2189875964762</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>36.48628322062227</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>344.7025836476828</v>
+        <v>288.0478149561034</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>297.8289162490797</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>133.253057640027</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9880,25 +9880,25 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>19.79750571619297</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>133.2530576400256</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10117,7 +10117,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P29" t="n">
-        <v>146.0713065388574</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>102.8529310510263</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,22 +10585,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>39.48321557772681</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476822</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10831,22 +10831,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>185.3870697685875</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,28 +11062,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>257.9017284501181</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11308,19 +11308,19 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>126.3855966773237</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,10 +23415,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,16 +23427,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>21.59472895491497</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,19 +23469,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>93.09379842996233</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>137.153933898874</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>216.1330742479083</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>29.02894347705899</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,10 +23940,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>47.07356663127143</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>134.7247446382407</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>82.55208449420009</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>81.27804930307936</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>58.19598621064738</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,13 +24654,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>150.6988949114993</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>180.5753528548759</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>21.64782230046896</v>
+        <v>22.51994930982153</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>131.35959153981</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,19 +25131,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>64.83169505353817</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>238.6558052625662</v>
+        <v>272.3211098256407</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>17.85217951466723</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>43.60786094376948</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>54.5999927331217</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>21.89286323997518</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>85.48191633271063</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>146.8384368076083</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380333</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380333</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>655184.9483635222</v>
+        <v>655184.9483635228</v>
       </c>
       <c r="F2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635224</v>
       </c>
       <c r="G2" t="n">
         <v>655184.9483635226</v>
       </c>
       <c r="H2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635223</v>
       </c>
       <c r="I2" t="n">
         <v>655184.9483635223</v>
       </c>
       <c r="J2" t="n">
-        <v>655184.9483635225</v>
+        <v>655184.9483635226</v>
       </c>
       <c r="K2" t="n">
+        <v>655184.9483635221</v>
+      </c>
+      <c r="L2" t="n">
+        <v>655184.9483635223</v>
+      </c>
+      <c r="M2" t="n">
+        <v>655184.948363522</v>
+      </c>
+      <c r="N2" t="n">
+        <v>655184.9483635226</v>
+      </c>
+      <c r="O2" t="n">
         <v>655184.9483635224</v>
       </c>
-      <c r="L2" t="n">
-        <v>655184.9483635222</v>
-      </c>
-      <c r="M2" t="n">
-        <v>655184.9483635225</v>
-      </c>
-      <c r="N2" t="n">
-        <v>655184.9483635225</v>
-      </c>
-      <c r="O2" t="n">
-        <v>655184.9483635223</v>
-      </c>
       <c r="P2" t="n">
-        <v>655184.9483635223</v>
+        <v>655184.9483635224</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389448</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,25 +26420,25 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="H4" t="n">
-        <v>18148.49231918992</v>
-      </c>
       <c r="I4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918996</v>
       </c>
       <c r="J4" t="n">
         <v>18148.49231918994</v>
@@ -26447,16 +26447,16 @@
         <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="M4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="N4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="M4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="N4" t="n">
-        <v>18148.49231918994</v>
-      </c>
       <c r="O4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="P4" t="n">
         <v>18148.49231918993</v>
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340947</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340946</v>
-      </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
         <v>96383.51825371364</v>
@@ -26502,13 +26502,13 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178816.1839970484</v>
+        <v>-178816.1839970487</v>
       </c>
       <c r="C6" t="n">
-        <v>411151.6952174962</v>
+        <v>411151.6952174958</v>
       </c>
       <c r="D6" t="n">
-        <v>411151.6952174959</v>
+        <v>411151.695217496</v>
       </c>
       <c r="E6" t="n">
-        <v>-186724.4762027881</v>
+        <v>-187396.4311050453</v>
       </c>
       <c r="F6" t="n">
-        <v>540652.937790619</v>
+        <v>539980.982888361</v>
       </c>
       <c r="G6" t="n">
-        <v>540652.9377906191</v>
+        <v>539980.9828883612</v>
       </c>
       <c r="H6" t="n">
-        <v>540652.9377906189</v>
+        <v>539980.9828883609</v>
       </c>
       <c r="I6" t="n">
-        <v>540652.9377906187</v>
+        <v>539980.9828883609</v>
       </c>
       <c r="J6" t="n">
-        <v>364229.7185980259</v>
+        <v>363557.7636957682</v>
       </c>
       <c r="K6" t="n">
-        <v>540652.9377906189</v>
+        <v>539980.9828883606</v>
       </c>
       <c r="L6" t="n">
-        <v>540652.9377906186</v>
+        <v>539980.9828883607</v>
       </c>
       <c r="M6" t="n">
-        <v>411010.6229516741</v>
+        <v>410338.6680494157</v>
       </c>
       <c r="N6" t="n">
-        <v>540652.937790619</v>
+        <v>539980.9828883613</v>
       </c>
       <c r="O6" t="n">
-        <v>540652.9377906187</v>
+        <v>539980.982888361</v>
       </c>
       <c r="P6" t="n">
-        <v>540652.9377906187</v>
+        <v>539980.982888361</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26767,10 +26767,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503747</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>138.2384675615767</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>157.9194163462077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>87.37250077274437</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>123.2870927458113</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27669,19 +27669,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>41.13433373758923</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>4.167450853507574</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>62.56730398349333</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27855,10 +27855,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,19 +27909,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>207.6878058675526</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>10.98247917251484</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060686</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>139.6937294164092</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33271,7 +33271,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T32" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P34" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,10 +35026,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839194</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>575.5896386552618</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>666.5208230093876</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>96.09948176284705</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>897.0044190605943</v>
+        <v>840.3496503690146</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>635.0202028044802</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>641.306058528246</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,25 +36600,25 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>558.7186215464197</v>
       </c>
       <c r="N26" t="n">
         <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>532.0150438593975</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36837,7 +36837,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
@@ -36846,16 +36846,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P29" t="n">
-        <v>544.8332927582293</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M32" t="n">
-        <v>641.7740468812531</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265653</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M35" t="n">
-        <v>578.4043314079536</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359016</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>125.3296184152073</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37551,22 +37551,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>724.3081855988142</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>796.8228442803448</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38028,19 +38028,19 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>377.1799014810432</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_5_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3001855.685687624</v>
+        <v>3005261.176812073</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836237</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095097</v>
+        <v>806345.8827095092</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>290.7576121283572</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,7 +715,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>112.9856999467126</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -825,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>59.0614618738248</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>110.0068855298935</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>390.6963146888398</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>325.2557485598865</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>177.9498744325401</v>
       </c>
       <c r="X7" t="n">
-        <v>163.1423514055438</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>138.5973240860327</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>338.2584895448982</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>130.8251764553486</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,13 +1533,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>126.2754186592112</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>74.75769145492315</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1587,7 +1587,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1627,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>28.87187436015421</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>138.6444210303392</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,7 +1940,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
         <v>18.81721868247745</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>136.9968647819692</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247654</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.380068175847255</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2338,7 +2338,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2414,10 +2414,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>88.23797643592179</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>156.1763214204184</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2654,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247747</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>71.56229046895207</v>
+        <v>147.0633545968146</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>7.695578038927279</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,16 +2958,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>197.0289999663477</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>17.25588147840233</v>
+        <v>113.4982160720555</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3246,10 +3246,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653454</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>163.689844124971</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -3480,7 +3480,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>13.89072837997214</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>74.75769145492404</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>208.5297823800585</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.2319874488156</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>136.2971620146653</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>60.95204631385855</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>134.0389899623034</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4188,19 +4188,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1780.41262192169</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="C2" t="n">
-        <v>1780.41262192169</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="D2" t="n">
-        <v>1422.14692331494</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="F2" t="n">
         <v>625.3727659270879</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2133.181277191804</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2133.181277191804</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W2" t="n">
-        <v>1780.41262192169</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X2" t="n">
-        <v>1780.41262192169</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y2" t="n">
-        <v>1780.41262192169</v>
+        <v>1305.667163696621</v>
       </c>
     </row>
     <row r="3">
@@ -4418,22 +4418,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>249.9299350185089</v>
+        <v>470.722514162039</v>
       </c>
       <c r="C4" t="n">
-        <v>249.9299350185089</v>
+        <v>470.722514162039</v>
       </c>
       <c r="D4" t="n">
-        <v>249.9299350185089</v>
+        <v>470.722514162039</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>322.8094205796459</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4533,7 +4533,7 @@
         <v>470.722514162039</v>
       </c>
       <c r="Y4" t="n">
-        <v>249.9299350185089</v>
+        <v>470.722514162039</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1663.420136195577</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1294.457619255165</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>936.1919206484147</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>936.1919206484147</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>929.2464198992112</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>2050.019976259699</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>2050.019976259699</v>
       </c>
     </row>
     <row r="6">
@@ -4661,10 +4661,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>563.3387302614404</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>394.4025473335336</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
         <v>99.59950625323012</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>548.3816362947775</v>
       </c>
       <c r="X7" t="n">
-        <v>563.3387302614404</v>
+        <v>320.3920853967602</v>
       </c>
       <c r="Y7" t="n">
-        <v>563.3387302614404</v>
+        <v>99.59950625323012</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2355.473849053679</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.008090792599</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y8" t="n">
-        <v>1591.868758816787</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>566.5654221758658</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5020,13 +5020,13 @@
         <v>2374.216356690177</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5044,19 +5044,19 @@
         <v>451.8458144277728</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L11" t="n">
-        <v>1557.603359811481</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M11" t="n">
-        <v>2091.135264483405</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.914081542187</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O11" t="n">
-        <v>3482.142110232732</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P11" t="n">
         <v>4195.497197679678</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.0738540998319</v>
+        <v>617.4442264788923</v>
       </c>
       <c r="C13" t="n">
-        <v>171.0738540998319</v>
+        <v>617.4442264788923</v>
       </c>
       <c r="D13" t="n">
-        <v>171.0738540998319</v>
+        <v>467.3275870665566</v>
       </c>
       <c r="E13" t="n">
-        <v>171.0738540998319</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F13" t="n">
-        <v>171.0738540998319</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G13" t="n">
-        <v>171.0738540998319</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H13" t="n">
-        <v>171.0738540998319</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
@@ -5226,25 +5226,25 @@
         <v>1866.513008862231</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689057</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258583</v>
+        <v>1644.746393431757</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V13" t="n">
-        <v>909.27315417834</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413794</v>
+        <v>1066.22635652044</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433621</v>
+        <v>838.2368056224225</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998319</v>
+        <v>617.4442264788923</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,19 +5278,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L14" t="n">
-        <v>1898.858917622689</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N14" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O14" t="n">
         <v>3482.142110232732</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5333,34 +5333,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5369,34 +5369,34 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282341</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>270.9417306852379</v>
+        <v>709.4168978689405</v>
       </c>
       <c r="C16" t="n">
-        <v>270.9417306852379</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D16" t="n">
-        <v>270.9417306852379</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
-        <v>270.9417306852379</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
-        <v>270.9417306852379</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5439,7 +5439,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5451,37 +5451,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1816.298596377088</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.576850674229</v>
+        <v>1594.531980946615</v>
       </c>
       <c r="U16" t="n">
-        <v>1445.473983799873</v>
+        <v>1594.531980946615</v>
       </c>
       <c r="V16" t="n">
-        <v>1190.789495593986</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="W16" t="n">
-        <v>901.3723255570251</v>
+        <v>1339.847492740728</v>
       </c>
       <c r="X16" t="n">
-        <v>673.3827746590077</v>
+        <v>1111.85794184271</v>
       </c>
       <c r="Y16" t="n">
-        <v>452.5901955154776</v>
+        <v>891.0653626991802</v>
       </c>
     </row>
     <row r="17">
@@ -5515,25 +5515,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277728</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563072</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483405</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542187</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3944.053400686433</v>
       </c>
       <c r="P17" t="n">
-        <v>4195.497197679678</v>
+        <v>4338.827767043611</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188666</v>
@@ -5570,13 +5570,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E18" t="n">
         <v>487.9678785494859</v>
@@ -5594,28 +5594,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>402.87788887324</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C19" t="n">
-        <v>233.941705945333</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>233.941705945333</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>233.941705945333</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>233.941705945333</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862231</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T19" t="n">
-        <v>1866.513008862231</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U19" t="n">
-        <v>1577.410141987875</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.725653781988</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W19" t="n">
-        <v>1033.308483745027</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X19" t="n">
-        <v>805.3189328470098</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y19" t="n">
-        <v>584.5263537034797</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176192</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>1770.231306037952</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>2602.177459903276</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E21" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F21" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L21" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>264.4972173763014</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1949.898952795766</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1949.898952795766</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T22" t="n">
-        <v>1728.132337365293</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.029470490936</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V22" t="n">
-        <v>1184.344982285049</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W22" t="n">
-        <v>894.9278122480886</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X22" t="n">
-        <v>666.9382613500712</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y22" t="n">
-        <v>446.1456822065411</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="23">
@@ -5983,34 +5983,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.328657580449</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807095</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750059</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
         <v>4778.051722419721</v>
@@ -6059,7 +6059,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,25 +6068,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>481.6968904858343</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6968904858343</v>
+        <v>392.5676213586405</v>
       </c>
       <c r="D25" t="n">
-        <v>331.5802510734985</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="E25" t="n">
         <v>242.4509819463048</v>
@@ -6150,7 +6150,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6162,19 +6162,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.657581931529</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T25" t="n">
         <v>1542.890966501056</v>
@@ -6183,16 +6183,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V25" t="n">
-        <v>999.1036114208122</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W25" t="n">
-        <v>709.6864413838516</v>
+        <v>841.349751400188</v>
       </c>
       <c r="X25" t="n">
-        <v>481.6968904858343</v>
+        <v>613.3602005021706</v>
       </c>
       <c r="Y25" t="n">
-        <v>481.6968904858343</v>
+        <v>392.5676213586405</v>
       </c>
     </row>
     <row r="26">
@@ -6205,73 +6205,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888612</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924161</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M26" t="n">
-        <v>1622.425187676631</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.177459903277</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973196</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161926</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549414</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390116</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193585</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>806.069814334827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>637.1336314069201</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>487.0169919945844</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6411,25 +6411,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1866.513008862232</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1577.410141987875</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V28" t="n">
-        <v>1505.125000100045</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>1215.707830063084</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>987.7182791650667</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>987.7182791650667</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6451,49 +6451,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G29" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
         <v>4208.252829604874</v>
@@ -6518,34 +6518,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D30" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F30" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>414.613856788637</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C31" t="n">
-        <v>245.6776738607301</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839441</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839441</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839441</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839441</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T31" t="n">
-        <v>1475.807932803858</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U31" t="n">
-        <v>1186.705065929502</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="V31" t="n">
-        <v>932.0205777236149</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="W31" t="n">
-        <v>642.6034076866544</v>
+        <v>1479.892362468343</v>
       </c>
       <c r="X31" t="n">
-        <v>414.613856788637</v>
+        <v>1251.902811570325</v>
       </c>
       <c r="Y31" t="n">
-        <v>414.613856788637</v>
+        <v>1031.110232426795</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
         <v>137.5579332089257</v>
@@ -6700,7 +6700,7 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
         <v>1106.569146563073</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6779,34 +6779,34 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>260.904311342305</v>
+        <v>623.3575047549123</v>
       </c>
       <c r="C34" t="n">
-        <v>260.904311342305</v>
+        <v>454.4213218270054</v>
       </c>
       <c r="D34" t="n">
-        <v>243.4741280307875</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
@@ -6864,13 +6864,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
         <v>1646.12566951853</v>
@@ -6885,25 +6885,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931531</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>999.1036114208131</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="W34" t="n">
-        <v>709.6864413838525</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="X34" t="n">
-        <v>481.6968904858352</v>
+        <v>1025.798548728682</v>
       </c>
       <c r="Y34" t="n">
-        <v>260.904311342305</v>
+        <v>805.005969585152</v>
       </c>
     </row>
     <row r="35">
@@ -6916,28 +6916,28 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>451.845814427773</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
         <v>1106.569146563073</v>
@@ -6952,31 +6952,31 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O35" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V35" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X35" t="n">
         <v>3150.95552873011</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7055,7 +7055,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>264.4972173763013</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7101,13 +7101,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689059</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T37" t="n">
-        <v>1453.060509258585</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U37" t="n">
-        <v>1439.029470490936</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V37" t="n">
-        <v>1184.344982285049</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W37" t="n">
-        <v>894.9278122480885</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X37" t="n">
-        <v>666.9382613500711</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y37" t="n">
-        <v>446.145682206541</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="38">
@@ -7171,37 +7171,37 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
         <v>4461.783306331037</v>
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
         <v>189.2383039390118</v>
@@ -7259,7 +7259,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7271,16 +7271,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>825.859557377715</v>
+        <v>171.0738540998329</v>
       </c>
       <c r="C40" t="n">
-        <v>656.9233744498081</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
         <v>140.68366689533</v>
@@ -7356,28 +7356,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S40" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T40" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U40" t="n">
-        <v>1956.343466104704</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V40" t="n">
-        <v>1745.707322286463</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W40" t="n">
-        <v>1456.290152249502</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X40" t="n">
-        <v>1228.300601351485</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y40" t="n">
-        <v>1007.508022207955</v>
+        <v>171.0738540998329</v>
       </c>
     </row>
     <row r="41">
@@ -7390,25 +7390,25 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
@@ -7426,37 +7426,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7487,13 +7487,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320242</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.336921276364</v>
+        <v>528.0379765536123</v>
       </c>
       <c r="C43" t="n">
-        <v>854.4007383484569</v>
+        <v>528.0379765536123</v>
       </c>
       <c r="D43" t="n">
-        <v>704.2840989361212</v>
+        <v>528.0379765536123</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>380.1248829712192</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>233.2349354733089</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U43" t="n">
-        <v>1667.240599230347</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V43" t="n">
-        <v>1667.240599230347</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W43" t="n">
-        <v>1377.823429193387</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X43" t="n">
-        <v>1149.833878295369</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="Y43" t="n">
-        <v>1149.833878295369</v>
+        <v>709.6864413838521</v>
       </c>
     </row>
     <row r="44">
@@ -7648,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7703,43 +7703,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7748,7 +7748,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7757,22 +7757,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>307.2453974100822</v>
+        <v>844.8098170227823</v>
       </c>
       <c r="C46" t="n">
-        <v>307.2453974100822</v>
+        <v>675.8736340948755</v>
       </c>
       <c r="D46" t="n">
-        <v>157.1287579977465</v>
+        <v>525.7569946825397</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>377.8439011001466</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>230.9539536022362</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839441</v>
@@ -7836,22 +7836,22 @@
         <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>1475.240411894569</v>
       </c>
       <c r="X46" t="n">
-        <v>709.6864413838521</v>
+        <v>1247.250860996552</v>
       </c>
       <c r="Y46" t="n">
-        <v>488.8938622403219</v>
+        <v>1026.458281853022</v>
       </c>
     </row>
   </sheetData>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8309,13 +8309,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747166</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>103.7862464855155</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8932,7 +8932,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>344.7025836476847</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -8941,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9163,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476853</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>67.53663776704306</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9412,10 +9412,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>288.0478149561034</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9476,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.059419880941277e-13</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>344.7025836476839</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.253057640027</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>132.9990175570114</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>19.79750571619297</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476822</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>344.7025836476822</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>170.1140909277306</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>20.15854398735799</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>21.59472895491497</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>137.153933898874</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>51.12460430110269</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>29.02894347705899</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>82.55208449420009</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>58.19598621064738</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>130.3466769161726</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,10 +24618,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>180.5753528548759</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>172.13640214301</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>22.51994930982153</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>131.35959153981</v>
+        <v>35.11725694615686</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>16.14213605696625</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>272.3211098256407</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>92.48912964370379</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>43.60786094376948</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.5999927331217</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>29.72864624436292</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25836,22 +25836,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,19 +26025,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>85.48191633271063</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>31.98681829672483</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26076,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304289</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>751956.8841304289</v>
+        <v>751956.8841304288</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>751956.8841304288</v>
+        <v>751956.8841304287</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380333</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380331</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
+        <v>655184.9483635225</v>
+      </c>
+      <c r="F2" t="n">
+        <v>655184.9483635223</v>
+      </c>
+      <c r="G2" t="n">
         <v>655184.9483635228</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>655184.9483635222</v>
+      </c>
+      <c r="I2" t="n">
         <v>655184.9483635224</v>
       </c>
-      <c r="G2" t="n">
-        <v>655184.9483635226</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>655184.9483635224</v>
+      </c>
+      <c r="K2" t="n">
         <v>655184.9483635223</v>
-      </c>
-      <c r="I2" t="n">
-        <v>655184.9483635223</v>
-      </c>
-      <c r="J2" t="n">
-        <v>655184.9483635226</v>
-      </c>
-      <c r="K2" t="n">
-        <v>655184.9483635221</v>
       </c>
       <c r="L2" t="n">
         <v>655184.9483635223</v>
       </c>
       <c r="M2" t="n">
-        <v>655184.948363522</v>
+        <v>655184.9483635226</v>
       </c>
       <c r="N2" t="n">
+        <v>655184.9483635223</v>
+      </c>
+      <c r="O2" t="n">
         <v>655184.9483635226</v>
       </c>
-      <c r="O2" t="n">
-        <v>655184.9483635224</v>
-      </c>
       <c r="P2" t="n">
-        <v>655184.9483635224</v>
+        <v>655184.9483635225</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.574418839027077e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.2191925929</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389448</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
         <v>183348.6868571279</v>
@@ -26426,37 +26426,37 @@
         <v>183348.6868571279</v>
       </c>
       <c r="E4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.4923191899</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="G4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>18148.49231918993</v>
       </c>
-      <c r="L4" t="n">
-        <v>18148.49231918991</v>
-      </c>
       <c r="M4" t="n">
-        <v>18148.49231918992</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="N4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.4923191899</v>
       </c>
       <c r="O4" t="n">
-        <v>18148.49231918993</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="P4" t="n">
         <v>18148.49231918993</v>
@@ -26475,40 +26475,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="G5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="H5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="I5" t="n">
+        <v>96383.51825371366</v>
+      </c>
+      <c r="J5" t="n">
         <v>96383.51825371364</v>
       </c>
-      <c r="G5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="H5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="I5" t="n">
-        <v>96383.51825371364</v>
-      </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>96383.51825371366</v>
-      </c>
-      <c r="K5" t="n">
-        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-178816.1839970487</v>
+        <v>-178816.1839970484</v>
       </c>
       <c r="C6" t="n">
-        <v>411151.6952174958</v>
+        <v>411151.6952174959</v>
       </c>
       <c r="D6" t="n">
         <v>411151.695217496</v>
       </c>
       <c r="E6" t="n">
-        <v>-187396.4311050453</v>
+        <v>-186791.6716930134</v>
       </c>
       <c r="F6" t="n">
-        <v>539980.982888361</v>
+        <v>540585.7423003929</v>
       </c>
       <c r="G6" t="n">
-        <v>539980.9828883612</v>
+        <v>540585.7423003934</v>
       </c>
       <c r="H6" t="n">
-        <v>539980.9828883609</v>
+        <v>540585.7423003928</v>
       </c>
       <c r="I6" t="n">
-        <v>539980.9828883609</v>
+        <v>540585.7423003931</v>
       </c>
       <c r="J6" t="n">
-        <v>363557.7636957682</v>
+        <v>364162.5231078002</v>
       </c>
       <c r="K6" t="n">
-        <v>539980.9828883606</v>
+        <v>540585.7423003929</v>
       </c>
       <c r="L6" t="n">
-        <v>539980.9828883607</v>
+        <v>540585.7423003929</v>
       </c>
       <c r="M6" t="n">
-        <v>410338.6680494157</v>
+        <v>410943.4274614484</v>
       </c>
       <c r="N6" t="n">
-        <v>539980.9828883613</v>
+        <v>540585.7423003929</v>
       </c>
       <c r="O6" t="n">
-        <v>539980.982888361</v>
+        <v>540585.7423003933</v>
       </c>
       <c r="P6" t="n">
-        <v>539980.982888361</v>
+        <v>540585.7423003932</v>
       </c>
     </row>
   </sheetData>
@@ -26767,10 +26767,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>116.1184336133543</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>138.2384675615767</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>87.37250077274437</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>35.41416249303776</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>45.19995918853699</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>23.08785533195515</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,13 +27663,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>44.47535211858258</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,16 +27776,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>108.5731239040509</v>
       </c>
       <c r="X7" t="n">
-        <v>62.56730398349333</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>226.6755676849749</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>10.98247917251484</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>49.00680372658866</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32785,40 +32785,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32858,13 +32858,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32873,16 +32873,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32891,16 +32891,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33271,7 +33271,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
         <v>44.86703772844668</v>
@@ -33420,40 +33420,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33572,43 +33572,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
         <v>0.1071911508780295</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34786,7 +34786,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
@@ -35412,22 +35412,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O11" t="n">
-        <v>852.7555845359043</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908542</v>
+        <v>502.5482327048871</v>
       </c>
       <c r="Q11" t="n">
         <v>463.1092954636241</v>
@@ -35649,25 +35649,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L14" t="n">
-        <v>800.2926980400166</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152072</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359043</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>318.3309425707625</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,25 +36123,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>840.3496503690146</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427824</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>883.6236994779107</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.306058528246</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36530,13 +36530,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>323.786018525724</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>558.7186215464197</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359016</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407864</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265653</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>852.7555845359016</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636243</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200628</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
